--- a/VarNames.xlsx
+++ b/VarNames.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="11676"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,12 +91,6 @@
     <t>Grain Radius Distribution (px)</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Columns</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pore to Throat Aspect ratio </t>
   </si>
   <si>
@@ -329,6 +323,12 @@
   </si>
   <si>
     <t>Pore Density  ($1/px^3$)</t>
+  </si>
+  <si>
+    <t>Output indices</t>
+  </si>
+  <si>
+    <t>Value (unit)</t>
   </si>
 </sst>
 </file>
@@ -675,47 +675,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -737,27 +737,27 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -765,13 +765,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -779,13 +779,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -793,13 +793,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -807,13 +807,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -821,27 +821,27 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -849,13 +849,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -863,13 +863,13 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -877,13 +877,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -891,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -905,220 +905,220 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
       <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
